--- a/medicine/Enfance/Rascal_(dessinateur)/Rascal_(dessinateur).xlsx
+++ b/medicine/Enfance/Rascal_(dessinateur)/Rascal_(dessinateur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pascal Nottet dit Rascal, né le 24 juin 1959 à Namur, est un écrivain, scénariste de bande dessinée et illustrateur belge de littérature jeunesse, de langue française.
 </t>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pascal Nottet naît le 24 juin 1959 à Namur[1],[2]. Autodidacte, il a fait plusieurs métiers, de la publicité, des affiches, avant de se consacrer au livre pour enfants[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pascal Nottet naît le 24 juin 1959 à Namur,. Autodidacte, il a fait plusieurs métiers, de la publicité, des affiches, avant de se consacrer au livre pour enfants.
 Il a été conférencier à l'école d'art La Cambre, à Bruxelles, dans l'option communication graphique et visuelle.
 C'est un prolifique auteur et illustrateur d'albums pour l'enfance. Ses textes sont le plus souvent illustrés par d'autres illustrateurs (Isabelle Chatellard, Claude K. Dubois, Edith, Peter Elliott, Stéphane Girel, René Hausman, Louis Joos, Pascal Lemaître), parfois par son fils Marius ou par lui-même.
 Ses albums sont publiés par L'École des loisirs. Ils sont appréciés pour leur ambiguïté et la cruauté qu'ils sous-entendent, bien qu'ils s'adressent aux tout-petits.
-En 1993, l'ouvrage qu'il a écrit Escales : carnet de croquis obtient la "Mention" Premio Grafico Fiera di Bologna per l'Infanzia de la Foire du livre de jeunesse de Bologne[3] (Italie) sur des illustrations de Louis Joos.
-Il reçoit le Grand prix triennal de Littérature de jeunesse de la Communauté française 2009-2012 pour l’ensemble de son œuvre. Il la définit ainsi lui-même : « Je ne veux pas dire ou raconter, j’espère juste être capable de transmettre une émotion. C’est mon seul souci. J’écris des histoires d’enfance[2]. »
-En 2018, il est sélectionné pour la troisième année d'affilée pour le prestigieux prix suédois, le prix commémoratif Astrid-Lindgren[4].
+En 1993, l'ouvrage qu'il a écrit Escales : carnet de croquis obtient la "Mention" Premio Grafico Fiera di Bologna per l'Infanzia de la Foire du livre de jeunesse de Bologne (Italie) sur des illustrations de Louis Joos.
+Il reçoit le Grand prix triennal de Littérature de jeunesse de la Communauté française 2009-2012 pour l’ensemble de son œuvre. Il la définit ainsi lui-même : « Je ne veux pas dire ou raconter, j’espère juste être capable de transmettre une émotion. C’est mon seul souci. J’écris des histoires d’enfance. »
+En 2018, il est sélectionné pour la troisième année d'affilée pour le prestigieux prix suédois, le prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -548,9 +562,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il demeure à Soignies dans la province de Hainaut[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il demeure à Soignies dans la province de Hainaut.
 </t>
         </is>
       </c>
@@ -581,7 +597,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Auteur-illustrateur
+          <t>Auteur-illustrateur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cliquez sur dérouler pour voir la liste des publications
 Découpe, L’École des loisirs, Pastel, 2022
 3 poissons, L'École des loisirs, Pastel, 2021
@@ -624,7 +646,43 @@
 1, 2, 3 cachez tout, la voilà !, L'École des loisirs, Pastel, 1992
 A, B, C de quoi rêver, L'École des loisirs, Pastel, 1992
 De toutes les couleurs, L'École des loisirs, Pastel, 1992
-Auteur
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rascal_(dessinateur)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rascal_(dessinateur)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Auteur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cliquez sur dérouler pour voir la liste des publications
 Mille et une histoires, illustré par Michel Van Zeveren, L'École des loisirs, Pastel, 2024  (ISBN 9782211333580)
 Les aventures de Grand Chien et Petit Chat : Petit sioux, illustré par Peter Elliott , L'École des loisirs , 2023
@@ -723,8 +781,43 @@
 Toto, illustré par Claude K. Dubois, L'École des loisirs, Pastel, 1992
 Joyeux Noël, maître Renard, illustré par Ian Pollock, L'École des loisirs, Pastel, 1992
 Socrate, illustré par Gert Bopets, L'École des loisirs, Pastel, 1992
-Illustrateur
-Si tu as peur du noir, texte de Schéhérazade Zeboudji, L'École des loisirs, Pastel, 2019
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rascal_(dessinateur)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rascal_(dessinateur)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Si tu as peur du noir, texte de Schéhérazade Zeboudji, L'École des loisirs, Pastel, 2019
 Combien de questions, texte de Cendrine Genin, L'École des loisirs, Pastel, 2015
 Les Baleines préfèrent le chocolat, texte de Marie Colot, Alice jeunesse, 2015
 J'ai vu, texte de Cendrine Genin, L'École des loisirs, Pastel, 2014
@@ -736,73 +829,77 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Rascal_(dessinateur)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Rascal_(dessinateur)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Adaptation de son œuvre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>En spectacle
-La Mélopée du phare : le conte du dernier gardien[5], d'après l'ouvrage Le Phare des sirènes, texte de Rascal, illustrations Régis Lejonc, publié en 2007 ; conception Fabien Bondil ; adaptation Brice Berthoud ; musique Gabriel Fabing ; scénographie Brice Berthoud ; marionnettes Yseult Welschinger ; coproduction Compagnie la Valise, l'Illiade à Illkirch, l'Hectare de Vendôme... et al. ; avec Fabien Bondil ; création 2013.</t>
+La Mélopée du phare : le conte du dernier gardien, d'après l'ouvrage Le Phare des sirènes, texte de Rascal, illustrations Régis Lejonc, publié en 2007 ; conception Fabien Bondil ; adaptation Brice Berthoud ; musique Gabriel Fabing ; scénographie Brice Berthoud ; marionnettes Yseult Welschinger ; coproduction Compagnie la Valise, l'Illiade à Illkirch, l'Hectare de Vendôme... et al. ; avec Fabien Bondil ; création 2013.</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Rascal_(dessinateur)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Rascal_(dessinateur)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1993 :  "Mention" Premio Grafico Fiera di Bologna per l'Infanzia de  la Foire du livre de jeunesse de Bologne[3](it) pour  Escales : carnet de croquis, illustrations de Louis Joos.
-1997 :  prix Québec-Wallonie-Bruxelles de littérature de jeunesse[6] pour Le Voyage d'Oregon, illustrations de Louis Joos ;
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1993 :  "Mention" Premio Grafico Fiera di Bologna per l'Infanzia de  la Foire du livre de jeunesse de Bologne(it) pour  Escales : carnet de croquis, illustrations de Louis Joos.
+1997 :  prix Québec-Wallonie-Bruxelles de littérature de jeunesse pour Le Voyage d'Oregon, illustrations de Louis Joos ;
 2001 :  prix Sorcières, Catégorie Premières lectures pour Côté cœur, avec Stéphane Girel ;
-2003 :  prix Sorcières[6] Catégorie Albums pour Ami-Ami, avec Stéphane Girel ;
-2008 :  prix Chrétien de Troyes[6] pour Le Phare des sirènes avec Régis Lejonc ;
-2009-2012 : Grand Prix Triennal de Littérature de Jeunesse de la Fédération Wallonie-Bruxelles[6], pour l'ensemble de son œuvre ;
-2012 : (international) « Honour List »[7] de l' IBBY pour  En 2000 trop loin  ;
-2013 : Prix Libbylit[6] de l' IBBY, Catégorie Album belge pour Les Trois Petits Cochons ;
-2014 :  prix spécial du Prix Petit Angle[6] pour Beau jour tout blanc ;
-2016, 2017 et 2018 :  Sélections Prix commémoratif Astrid-Lindgren[4].</t>
+2003 :  prix Sorcières Catégorie Albums pour Ami-Ami, avec Stéphane Girel ;
+2008 :  prix Chrétien de Troyes pour Le Phare des sirènes avec Régis Lejonc ;
+2009-2012 : Grand Prix Triennal de Littérature de Jeunesse de la Fédération Wallonie-Bruxelles, pour l'ensemble de son œuvre ;
+2012 : (international) « Honour List » de l' IBBY pour  En 2000 trop loin  ;
+2013 : Prix Libbylit de l' IBBY, Catégorie Album belge pour Les Trois Petits Cochons ;
+2014 :  prix spécial du Prix Petit Angle pour Beau jour tout blanc ;
+2016, 2017 et 2018 :  Sélections Prix commémoratif Astrid-Lindgren.</t>
         </is>
       </c>
     </row>
